--- a/Developer Files/ASDC Mod Developer Example and Template.xlsx
+++ b/Developer Files/ASDC Mod Developer Example and Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\OMSI Backup\Brisbane OMSI Project\Bus Mods\Reprogramed IBIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\OMSI Backup\Git\OMSI-BoundDestoController\Developer Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3A56913-0ABD-458E-9D4C-14E76014226E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D58D30-650F-40B2-9B44-BAE11D2B0852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{077C9962-A099-41CF-A6B8-5C606CBDBEFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{077C9962-A099-41CF-A6B8-5C606CBDBEFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Manly Act 3 v2" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Template" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Brisbane Transport'!$A$6:$S$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Manly Act 3 v2'!$A$14:$S$243</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Template!$A$14:$S$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Brisbane Transport'!$A$6:$U$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Manly Act 3 v2'!$A$14:$U$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Template!$A$14:$V$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4711" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4717" uniqueCount="1063">
   <si>
     <t>*B</t>
   </si>
@@ -3224,6 +3224,12 @@
   </si>
   <si>
     <t>9091 NIS</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Img</t>
   </si>
 </sst>
 </file>
@@ -3324,7 +3330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3400,31 +3406,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3785,14 +3774,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2ABE2B8-A72B-4B3C-9121-E1614404C25A}">
-  <dimension ref="A1:S243"/>
+  <dimension ref="A1:U243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="H265" sqref="H265"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="A2:S3"/>
+      <selection pane="bottomRight" activeCell="U1" sqref="S1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3810,25 +3799,25 @@
     <col min="12" max="12" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G1" s="12" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G1" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
       <c r="R1" s="11"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -3886,8 +3875,14 @@
       <c r="S2" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" s="2">
+        <v>19</v>
+      </c>
+      <c r="U2" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>342</v>
       </c>
@@ -3943,10 +3938,16 @@
         <v>330</v>
       </c>
       <c r="S3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="U3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" s="1" t="s">
         <v>328</v>
@@ -3970,7 +3971,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="1">
         <v>99</v>
@@ -3991,7 +3992,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="1">
         <v>199</v>
@@ -4015,7 +4016,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="1">
         <v>299</v>
@@ -4039,7 +4040,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="1">
         <v>399</v>
@@ -4063,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>499</v>
       </c>
@@ -4086,7 +4087,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10" s="1">
         <v>746</v>
@@ -4104,7 +4105,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11" s="10">
         <v>777</v>
@@ -4122,7 +4123,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" s="1">
         <v>8888</v>
@@ -4140,7 +4141,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13" s="1">
         <v>9999</v>
@@ -4155,13 +4156,13 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14" s="1"/>
       <c r="C14"/>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>305</v>
       </c>
@@ -4208,7 +4209,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>305</v>
       </c>
@@ -11721,8 +11722,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A14:S243" xr:uid="{6723F10E-43AD-4B21-8608-8B217E308CF5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:S243">
+  <autoFilter ref="A14:U243" xr:uid="{6723F10E-43AD-4B21-8608-8B217E308CF5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:U243">
       <sortCondition ref="B14:B243"/>
     </sortState>
   </autoFilter>
@@ -11731,12 +11732,12 @@
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="I93:J93 I96:J97 K103:L103 I106:L107 I108:J108 I110:J110 I113 G114:J114 I116:L118 I119:K119 J127:K127 I126:I128 J128 I131 I133:J133 J135:J136 K136 I134:I137 I139:K139 I141:J141 K152 I148:I153 J149:J153 I155:J157 I159:J159 I162:J164 K164 I166:J167 I169:J175 I181:J183 I193:I203 G204:I204 I206 I212:I214 I237 I240 I243:K243 I143:J147 G1:H8 G9:J9 G236:H1048576 I15:J18 I61:J64 I99:J104 I130:J130 I177:J179 I185:J192 G115:H203 J194:J203 I208:J211 J214 I216:J218 G220:J221 G205:H218 G219:I219 G222:I227 G230:I235 J223:J224 G228:J229 G10:H82 G85:H113 I66:J79 G83:J84">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11745,14 +11746,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70646D83-194C-4E84-AED5-2EFB9F2E318E}">
-  <dimension ref="A1:S562"/>
+  <dimension ref="A1:U562"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="H265" sqref="H265"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11771,25 +11772,25 @@
     <col min="12" max="12" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G1" s="12" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G1" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
       <c r="R1" s="11"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -11847,8 +11848,14 @@
       <c r="S2" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" s="2">
+        <v>19</v>
+      </c>
+      <c r="U2" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>342</v>
       </c>
@@ -11904,15 +11911,21 @@
         <v>330</v>
       </c>
       <c r="S3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="U3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>9001</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>9091</v>
       </c>
@@ -11932,7 +11945,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -11940,7 +11953,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>28</v>
       </c>
@@ -11973,7 +11986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>28</v>
       </c>
@@ -12006,7 +12019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>29</v>
       </c>
@@ -12036,7 +12049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>29</v>
       </c>
@@ -12071,7 +12084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>29</v>
       </c>
@@ -12101,7 +12114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>29</v>
       </c>
@@ -12130,7 +12143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>30</v>
       </c>
@@ -12154,7 +12167,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>30</v>
       </c>
@@ -12175,7 +12188,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>30</v>
       </c>
@@ -12196,7 +12209,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>40</v>
       </c>
@@ -24451,8 +24464,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:S6" xr:uid="{06A40FC4-EA7D-4A05-9559-B137307284B0}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:S471">
+  <autoFilter ref="A6:U6" xr:uid="{06A40FC4-EA7D-4A05-9559-B137307284B0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:U471">
       <sortCondition ref="B6"/>
     </sortState>
   </autoFilter>
@@ -24461,12 +24474,12 @@
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="G2:H3">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E3">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24475,14 +24488,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4132BB5C-A747-4569-968D-A8B8EBF96825}">
-  <dimension ref="A1:T136"/>
+  <dimension ref="A1:W136"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="H265" sqref="H265"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24500,25 +24513,26 @@
     <col min="12" max="12" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G1" s="12" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G1" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
       <c r="R1" s="11"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V1" s="12"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -24576,8 +24590,15 @@
       <c r="S2" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T2" s="2">
+        <v>19</v>
+      </c>
+      <c r="U2" s="2">
+        <v>20</v>
+      </c>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>342</v>
       </c>
@@ -24633,10 +24654,16 @@
         <v>330</v>
       </c>
       <c r="S3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="T3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="U3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="26"/>
       <c r="C4" s="27"/>
@@ -24655,10 +24682,10 @@
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="26"/>
       <c r="C5" s="27"/>
@@ -24677,10 +24704,10 @@
       <c r="P5" s="25"/>
       <c r="Q5" s="25"/>
       <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="25"/>
       <c r="B6" s="26"/>
       <c r="C6" s="27"/>
@@ -24699,10 +24726,10 @@
       <c r="P6" s="25"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
@@ -24721,10 +24748,10 @@
       <c r="P7" s="25"/>
       <c r="Q7" s="25"/>
       <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
@@ -24743,10 +24770,10 @@
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="28"/>
       <c r="C9" s="27"/>
@@ -24765,10 +24792,10 @@
       <c r="P9" s="25"/>
       <c r="Q9" s="25"/>
       <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
       <c r="B10" s="26"/>
       <c r="C10" s="27"/>
@@ -24787,10 +24814,10 @@
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
       <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27"/>
@@ -24809,10 +24836,10 @@
       <c r="P11" s="25"/>
       <c r="Q11" s="25"/>
       <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27"/>
@@ -24831,10 +24858,10 @@
       <c r="P12" s="25"/>
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
@@ -24853,10 +24880,10 @@
       <c r="P13" s="25"/>
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
@@ -24875,10 +24902,10 @@
       <c r="P14" s="25"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="28"/>
       <c r="C15" s="27"/>
@@ -24897,10 +24924,10 @@
       <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
@@ -24919,10 +24946,10 @@
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="28"/>
       <c r="C17" s="27"/>
@@ -24941,10 +24968,10 @@
       <c r="P17" s="25"/>
       <c r="Q17" s="25"/>
       <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="28"/>
       <c r="C18" s="27"/>
@@ -24963,10 +24990,10 @@
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
       <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="28"/>
       <c r="C19" s="27"/>
@@ -24985,10 +25012,10 @@
       <c r="P19" s="25"/>
       <c r="Q19" s="25"/>
       <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="28"/>
       <c r="C20" s="27"/>
@@ -25007,10 +25034,10 @@
       <c r="P20" s="25"/>
       <c r="Q20" s="25"/>
       <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="28"/>
       <c r="C21" s="27"/>
@@ -25029,10 +25056,10 @@
       <c r="P21" s="25"/>
       <c r="Q21" s="25"/>
       <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="28"/>
       <c r="C22" s="27"/>
@@ -25051,10 +25078,10 @@
       <c r="P22" s="25"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="28"/>
       <c r="C23" s="27"/>
@@ -25073,10 +25100,10 @@
       <c r="P23" s="25"/>
       <c r="Q23" s="25"/>
       <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="28"/>
       <c r="C24" s="27"/>
@@ -25095,10 +25122,10 @@
       <c r="P24" s="25"/>
       <c r="Q24" s="25"/>
       <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="28"/>
       <c r="C25" s="27"/>
@@ -25117,10 +25144,10 @@
       <c r="P25" s="25"/>
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="28"/>
       <c r="C26" s="27"/>
@@ -25139,10 +25166,10 @@
       <c r="P26" s="25"/>
       <c r="Q26" s="25"/>
       <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="28"/>
       <c r="C27" s="27"/>
@@ -25161,10 +25188,10 @@
       <c r="P27" s="25"/>
       <c r="Q27" s="25"/>
       <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="28"/>
       <c r="C28" s="27"/>
@@ -25183,10 +25210,10 @@
       <c r="P28" s="25"/>
       <c r="Q28" s="25"/>
       <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="28"/>
       <c r="C29" s="27"/>
@@ -25205,10 +25232,10 @@
       <c r="P29" s="25"/>
       <c r="Q29" s="25"/>
       <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="28"/>
       <c r="C30" s="27"/>
@@ -25227,10 +25254,10 @@
       <c r="P30" s="25"/>
       <c r="Q30" s="25"/>
       <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="28"/>
       <c r="C31" s="27"/>
@@ -25249,10 +25276,10 @@
       <c r="P31" s="25"/>
       <c r="Q31" s="25"/>
       <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="25"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="28"/>
       <c r="C32" s="27"/>
@@ -25271,10 +25298,10 @@
       <c r="P32" s="25"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="28"/>
       <c r="C33" s="27"/>
@@ -25293,10 +25320,10 @@
       <c r="P33" s="25"/>
       <c r="Q33" s="25"/>
       <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="25"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="28"/>
       <c r="C34" s="27"/>
@@ -25315,10 +25342,10 @@
       <c r="P34" s="25"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="28"/>
       <c r="C35" s="27"/>
@@ -25337,10 +25364,10 @@
       <c r="P35" s="25"/>
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="28"/>
       <c r="C36" s="27"/>
@@ -25359,10 +25386,10 @@
       <c r="P36" s="25"/>
       <c r="Q36" s="25"/>
       <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="28"/>
       <c r="C37" s="27"/>
@@ -25381,10 +25408,10 @@
       <c r="P37" s="25"/>
       <c r="Q37" s="25"/>
       <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="28"/>
       <c r="C38" s="27"/>
@@ -25403,10 +25430,10 @@
       <c r="P38" s="25"/>
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="28"/>
       <c r="C39" s="27"/>
@@ -25425,10 +25452,10 @@
       <c r="P39" s="25"/>
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="28"/>
       <c r="C40" s="27"/>
@@ -25447,10 +25474,10 @@
       <c r="P40" s="25"/>
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-      <c r="T40" s="25"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="28"/>
       <c r="C41" s="27"/>
@@ -25469,10 +25496,10 @@
       <c r="P41" s="25"/>
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="28"/>
       <c r="C42" s="27"/>
@@ -25491,10 +25518,10 @@
       <c r="P42" s="25"/>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="28"/>
       <c r="C43" s="27"/>
@@ -25513,10 +25540,10 @@
       <c r="P43" s="25"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="28"/>
       <c r="C44" s="27"/>
@@ -25535,10 +25562,10 @@
       <c r="P44" s="25"/>
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="28"/>
       <c r="C45" s="27"/>
@@ -25557,10 +25584,10 @@
       <c r="P45" s="25"/>
       <c r="Q45" s="25"/>
       <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="28"/>
       <c r="C46" s="27"/>
@@ -25579,10 +25606,10 @@
       <c r="P46" s="25"/>
       <c r="Q46" s="25"/>
       <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="28"/>
       <c r="C47" s="27"/>
@@ -25601,10 +25628,10 @@
       <c r="P47" s="25"/>
       <c r="Q47" s="25"/>
       <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="28"/>
       <c r="C48" s="27"/>
@@ -25623,10 +25650,10 @@
       <c r="P48" s="25"/>
       <c r="Q48" s="25"/>
       <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="28"/>
       <c r="C49" s="27"/>
@@ -25645,10 +25672,10 @@
       <c r="P49" s="25"/>
       <c r="Q49" s="25"/>
       <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="28"/>
       <c r="C50" s="27"/>
@@ -25667,10 +25694,10 @@
       <c r="P50" s="25"/>
       <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
-      <c r="S50" s="25"/>
-      <c r="T50" s="25"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="28"/>
       <c r="C51" s="27"/>
@@ -25689,10 +25716,10 @@
       <c r="P51" s="25"/>
       <c r="Q51" s="25"/>
       <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
       <c r="B52" s="28"/>
       <c r="C52" s="27"/>
@@ -25711,10 +25738,10 @@
       <c r="P52" s="25"/>
       <c r="Q52" s="25"/>
       <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="25"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V52" s="25"/>
+      <c r="W52" s="25"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
       <c r="B53" s="28"/>
       <c r="C53" s="27"/>
@@ -25733,10 +25760,10 @@
       <c r="P53" s="25"/>
       <c r="Q53" s="25"/>
       <c r="R53" s="25"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="25"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
       <c r="B54" s="28"/>
       <c r="C54" s="27"/>
@@ -25755,10 +25782,10 @@
       <c r="P54" s="25"/>
       <c r="Q54" s="25"/>
       <c r="R54" s="25"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="25"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V54" s="25"/>
+      <c r="W54" s="25"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
       <c r="B55" s="28"/>
       <c r="C55" s="27"/>
@@ -25777,10 +25804,10 @@
       <c r="P55" s="25"/>
       <c r="Q55" s="25"/>
       <c r="R55" s="25"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="25"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V55" s="25"/>
+      <c r="W55" s="25"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
       <c r="B56" s="28"/>
       <c r="C56" s="27"/>
@@ -25799,10 +25826,10 @@
       <c r="P56" s="25"/>
       <c r="Q56" s="25"/>
       <c r="R56" s="25"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="25"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
       <c r="B57" s="28"/>
       <c r="C57" s="27"/>
@@ -25821,10 +25848,10 @@
       <c r="P57" s="25"/>
       <c r="Q57" s="25"/>
       <c r="R57" s="25"/>
-      <c r="S57" s="25"/>
-      <c r="T57" s="25"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="27"/>
       <c r="B58" s="28"/>
       <c r="C58" s="27"/>
@@ -25843,10 +25870,10 @@
       <c r="P58" s="25"/>
       <c r="Q58" s="25"/>
       <c r="R58" s="25"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="25"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V58" s="25"/>
+      <c r="W58" s="25"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="28"/>
       <c r="C59" s="27"/>
@@ -25865,10 +25892,10 @@
       <c r="P59" s="25"/>
       <c r="Q59" s="25"/>
       <c r="R59" s="25"/>
-      <c r="S59" s="25"/>
-      <c r="T59" s="25"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V59" s="25"/>
+      <c r="W59" s="25"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="27"/>
       <c r="B60" s="28"/>
       <c r="C60" s="27"/>
@@ -25887,10 +25914,10 @@
       <c r="P60" s="25"/>
       <c r="Q60" s="25"/>
       <c r="R60" s="25"/>
-      <c r="S60" s="25"/>
-      <c r="T60" s="25"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V60" s="25"/>
+      <c r="W60" s="25"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="27"/>
       <c r="B61" s="28"/>
       <c r="C61" s="27"/>
@@ -25909,10 +25936,10 @@
       <c r="P61" s="25"/>
       <c r="Q61" s="25"/>
       <c r="R61" s="25"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="25"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V61" s="25"/>
+      <c r="W61" s="25"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="27"/>
       <c r="B62" s="28"/>
       <c r="C62" s="27"/>
@@ -25931,10 +25958,10 @@
       <c r="P62" s="25"/>
       <c r="Q62" s="25"/>
       <c r="R62" s="25"/>
-      <c r="S62" s="25"/>
-      <c r="T62" s="25"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V62" s="25"/>
+      <c r="W62" s="25"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="27"/>
       <c r="B63" s="28"/>
       <c r="C63" s="27"/>
@@ -25953,10 +25980,10 @@
       <c r="P63" s="25"/>
       <c r="Q63" s="25"/>
       <c r="R63" s="25"/>
-      <c r="S63" s="25"/>
-      <c r="T63" s="25"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V63" s="25"/>
+      <c r="W63" s="25"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="27"/>
       <c r="B64" s="28"/>
       <c r="C64" s="27"/>
@@ -25975,10 +26002,10 @@
       <c r="P64" s="25"/>
       <c r="Q64" s="25"/>
       <c r="R64" s="25"/>
-      <c r="S64" s="25"/>
-      <c r="T64" s="25"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V64" s="25"/>
+      <c r="W64" s="25"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="27"/>
       <c r="B65" s="28"/>
       <c r="C65" s="27"/>
@@ -25997,10 +26024,10 @@
       <c r="P65" s="25"/>
       <c r="Q65" s="25"/>
       <c r="R65" s="25"/>
-      <c r="S65" s="25"/>
-      <c r="T65" s="25"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V65" s="25"/>
+      <c r="W65" s="25"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="27"/>
       <c r="B66" s="28"/>
       <c r="C66" s="27"/>
@@ -26019,10 +26046,10 @@
       <c r="P66" s="25"/>
       <c r="Q66" s="25"/>
       <c r="R66" s="25"/>
-      <c r="S66" s="25"/>
-      <c r="T66" s="25"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V66" s="25"/>
+      <c r="W66" s="25"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
       <c r="B67" s="28"/>
       <c r="C67" s="27"/>
@@ -26041,10 +26068,10 @@
       <c r="P67" s="25"/>
       <c r="Q67" s="25"/>
       <c r="R67" s="25"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="25"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V67" s="25"/>
+      <c r="W67" s="25"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="27"/>
       <c r="B68" s="28"/>
       <c r="C68" s="27"/>
@@ -26063,10 +26090,10 @@
       <c r="P68" s="25"/>
       <c r="Q68" s="25"/>
       <c r="R68" s="25"/>
-      <c r="S68" s="25"/>
-      <c r="T68" s="25"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V68" s="25"/>
+      <c r="W68" s="25"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="27"/>
       <c r="B69" s="28"/>
       <c r="C69" s="27"/>
@@ -26085,10 +26112,10 @@
       <c r="P69" s="25"/>
       <c r="Q69" s="25"/>
       <c r="R69" s="25"/>
-      <c r="S69" s="25"/>
-      <c r="T69" s="25"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V69" s="25"/>
+      <c r="W69" s="25"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
       <c r="B70" s="28"/>
       <c r="C70" s="27"/>
@@ -26107,10 +26134,10 @@
       <c r="P70" s="25"/>
       <c r="Q70" s="25"/>
       <c r="R70" s="25"/>
-      <c r="S70" s="25"/>
-      <c r="T70" s="25"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V70" s="25"/>
+      <c r="W70" s="25"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="27"/>
       <c r="B71" s="28"/>
       <c r="C71" s="27"/>
@@ -26129,10 +26156,10 @@
       <c r="P71" s="25"/>
       <c r="Q71" s="25"/>
       <c r="R71" s="25"/>
-      <c r="S71" s="25"/>
-      <c r="T71" s="25"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V71" s="25"/>
+      <c r="W71" s="25"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="27"/>
       <c r="B72" s="28"/>
       <c r="C72" s="27"/>
@@ -26151,10 +26178,10 @@
       <c r="P72" s="25"/>
       <c r="Q72" s="25"/>
       <c r="R72" s="25"/>
-      <c r="S72" s="25"/>
-      <c r="T72" s="25"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V72" s="25"/>
+      <c r="W72" s="25"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="27"/>
       <c r="B73" s="28"/>
       <c r="C73" s="27"/>
@@ -26173,10 +26200,10 @@
       <c r="P73" s="25"/>
       <c r="Q73" s="25"/>
       <c r="R73" s="25"/>
-      <c r="S73" s="25"/>
-      <c r="T73" s="25"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V73" s="25"/>
+      <c r="W73" s="25"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="27"/>
       <c r="B74" s="28"/>
       <c r="C74" s="27"/>
@@ -26195,10 +26222,10 @@
       <c r="P74" s="25"/>
       <c r="Q74" s="25"/>
       <c r="R74" s="25"/>
-      <c r="S74" s="25"/>
-      <c r="T74" s="25"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V74" s="25"/>
+      <c r="W74" s="25"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="27"/>
       <c r="B75" s="28"/>
       <c r="C75" s="27"/>
@@ -26217,10 +26244,10 @@
       <c r="P75" s="25"/>
       <c r="Q75" s="25"/>
       <c r="R75" s="25"/>
-      <c r="S75" s="25"/>
-      <c r="T75" s="25"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V75" s="25"/>
+      <c r="W75" s="25"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="27"/>
       <c r="B76" s="28"/>
       <c r="C76" s="27"/>
@@ -26239,10 +26266,10 @@
       <c r="P76" s="25"/>
       <c r="Q76" s="25"/>
       <c r="R76" s="25"/>
-      <c r="S76" s="25"/>
-      <c r="T76" s="25"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V76" s="25"/>
+      <c r="W76" s="25"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="27"/>
       <c r="B77" s="28"/>
       <c r="C77" s="27"/>
@@ -26261,10 +26288,10 @@
       <c r="P77" s="25"/>
       <c r="Q77" s="25"/>
       <c r="R77" s="25"/>
-      <c r="S77" s="25"/>
-      <c r="T77" s="25"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V77" s="25"/>
+      <c r="W77" s="25"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="27"/>
       <c r="B78" s="28"/>
       <c r="C78" s="27"/>
@@ -26283,10 +26310,10 @@
       <c r="P78" s="25"/>
       <c r="Q78" s="25"/>
       <c r="R78" s="25"/>
-      <c r="S78" s="25"/>
-      <c r="T78" s="25"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V78" s="25"/>
+      <c r="W78" s="25"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="27"/>
       <c r="B79" s="28"/>
       <c r="C79" s="27"/>
@@ -26305,10 +26332,10 @@
       <c r="P79" s="25"/>
       <c r="Q79" s="25"/>
       <c r="R79" s="25"/>
-      <c r="S79" s="25"/>
-      <c r="T79" s="25"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V79" s="25"/>
+      <c r="W79" s="25"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="27"/>
       <c r="B80" s="28"/>
       <c r="C80" s="27"/>
@@ -26327,10 +26354,10 @@
       <c r="P80" s="25"/>
       <c r="Q80" s="25"/>
       <c r="R80" s="25"/>
-      <c r="S80" s="25"/>
-      <c r="T80" s="25"/>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V80" s="25"/>
+      <c r="W80" s="25"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="27"/>
       <c r="B81" s="28"/>
       <c r="C81" s="27"/>
@@ -26349,10 +26376,10 @@
       <c r="P81" s="25"/>
       <c r="Q81" s="25"/>
       <c r="R81" s="25"/>
-      <c r="S81" s="25"/>
-      <c r="T81" s="25"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V81" s="25"/>
+      <c r="W81" s="25"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="27"/>
       <c r="B82" s="28"/>
       <c r="C82" s="27"/>
@@ -26371,10 +26398,10 @@
       <c r="P82" s="25"/>
       <c r="Q82" s="25"/>
       <c r="R82" s="25"/>
-      <c r="S82" s="25"/>
-      <c r="T82" s="25"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V82" s="25"/>
+      <c r="W82" s="25"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="27"/>
       <c r="B83" s="28"/>
       <c r="C83" s="27"/>
@@ -26393,10 +26420,10 @@
       <c r="P83" s="25"/>
       <c r="Q83" s="25"/>
       <c r="R83" s="25"/>
-      <c r="S83" s="25"/>
-      <c r="T83" s="25"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V83" s="25"/>
+      <c r="W83" s="25"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="27"/>
       <c r="B84" s="28"/>
       <c r="C84" s="27"/>
@@ -26415,10 +26442,10 @@
       <c r="P84" s="25"/>
       <c r="Q84" s="25"/>
       <c r="R84" s="25"/>
-      <c r="S84" s="25"/>
-      <c r="T84" s="25"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V84" s="25"/>
+      <c r="W84" s="25"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="27"/>
       <c r="B85" s="28"/>
       <c r="C85" s="27"/>
@@ -26437,10 +26464,10 @@
       <c r="P85" s="25"/>
       <c r="Q85" s="25"/>
       <c r="R85" s="25"/>
-      <c r="S85" s="25"/>
-      <c r="T85" s="25"/>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V85" s="25"/>
+      <c r="W85" s="25"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="27"/>
       <c r="B86" s="28"/>
       <c r="C86" s="27"/>
@@ -26459,10 +26486,10 @@
       <c r="P86" s="25"/>
       <c r="Q86" s="25"/>
       <c r="R86" s="25"/>
-      <c r="S86" s="25"/>
-      <c r="T86" s="25"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V86" s="25"/>
+      <c r="W86" s="25"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="27"/>
       <c r="B87" s="28"/>
       <c r="C87" s="27"/>
@@ -26481,10 +26508,10 @@
       <c r="P87" s="25"/>
       <c r="Q87" s="25"/>
       <c r="R87" s="25"/>
-      <c r="S87" s="25"/>
-      <c r="T87" s="25"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V87" s="25"/>
+      <c r="W87" s="25"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="27"/>
       <c r="B88" s="28"/>
       <c r="C88" s="27"/>
@@ -26503,10 +26530,10 @@
       <c r="P88" s="25"/>
       <c r="Q88" s="25"/>
       <c r="R88" s="25"/>
-      <c r="S88" s="25"/>
-      <c r="T88" s="25"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V88" s="25"/>
+      <c r="W88" s="25"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="27"/>
       <c r="B89" s="28"/>
       <c r="C89" s="27"/>
@@ -26525,10 +26552,10 @@
       <c r="P89" s="25"/>
       <c r="Q89" s="25"/>
       <c r="R89" s="25"/>
-      <c r="S89" s="25"/>
-      <c r="T89" s="25"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V89" s="25"/>
+      <c r="W89" s="25"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="27"/>
       <c r="B90" s="28"/>
       <c r="C90" s="27"/>
@@ -26547,10 +26574,10 @@
       <c r="P90" s="25"/>
       <c r="Q90" s="25"/>
       <c r="R90" s="25"/>
-      <c r="S90" s="25"/>
-      <c r="T90" s="25"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V90" s="25"/>
+      <c r="W90" s="25"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="27"/>
       <c r="B91" s="28"/>
       <c r="C91" s="27"/>
@@ -26569,10 +26596,10 @@
       <c r="P91" s="25"/>
       <c r="Q91" s="25"/>
       <c r="R91" s="25"/>
-      <c r="S91" s="25"/>
-      <c r="T91" s="25"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V91" s="25"/>
+      <c r="W91" s="25"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="27"/>
       <c r="B92" s="28"/>
       <c r="C92" s="27"/>
@@ -26591,10 +26618,10 @@
       <c r="P92" s="25"/>
       <c r="Q92" s="25"/>
       <c r="R92" s="25"/>
-      <c r="S92" s="25"/>
-      <c r="T92" s="25"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V92" s="25"/>
+      <c r="W92" s="25"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="27"/>
       <c r="B93" s="28"/>
       <c r="C93" s="27"/>
@@ -26613,10 +26640,10 @@
       <c r="P93" s="25"/>
       <c r="Q93" s="25"/>
       <c r="R93" s="25"/>
-      <c r="S93" s="25"/>
-      <c r="T93" s="25"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V93" s="25"/>
+      <c r="W93" s="25"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="27"/>
       <c r="B94" s="28"/>
       <c r="C94" s="27"/>
@@ -26635,10 +26662,10 @@
       <c r="P94" s="25"/>
       <c r="Q94" s="25"/>
       <c r="R94" s="25"/>
-      <c r="S94" s="25"/>
-      <c r="T94" s="25"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V94" s="25"/>
+      <c r="W94" s="25"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="27"/>
       <c r="B95" s="28"/>
       <c r="C95" s="27"/>
@@ -26657,10 +26684,10 @@
       <c r="P95" s="25"/>
       <c r="Q95" s="25"/>
       <c r="R95" s="25"/>
-      <c r="S95" s="25"/>
-      <c r="T95" s="25"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V95" s="25"/>
+      <c r="W95" s="25"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="27"/>
       <c r="B96" s="28"/>
       <c r="C96" s="27"/>
@@ -26679,10 +26706,10 @@
       <c r="P96" s="25"/>
       <c r="Q96" s="25"/>
       <c r="R96" s="25"/>
-      <c r="S96" s="25"/>
-      <c r="T96" s="25"/>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V96" s="25"/>
+      <c r="W96" s="25"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="27"/>
       <c r="B97" s="28"/>
       <c r="C97" s="27"/>
@@ -26701,10 +26728,10 @@
       <c r="P97" s="25"/>
       <c r="Q97" s="25"/>
       <c r="R97" s="25"/>
-      <c r="S97" s="25"/>
-      <c r="T97" s="25"/>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V97" s="25"/>
+      <c r="W97" s="25"/>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="27"/>
       <c r="B98" s="28"/>
       <c r="C98" s="27"/>
@@ -26723,10 +26750,10 @@
       <c r="P98" s="25"/>
       <c r="Q98" s="25"/>
       <c r="R98" s="25"/>
-      <c r="S98" s="25"/>
-      <c r="T98" s="25"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V98" s="25"/>
+      <c r="W98" s="25"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="27"/>
       <c r="B99" s="28"/>
       <c r="C99" s="27"/>
@@ -26745,10 +26772,10 @@
       <c r="P99" s="25"/>
       <c r="Q99" s="25"/>
       <c r="R99" s="25"/>
-      <c r="S99" s="25"/>
-      <c r="T99" s="25"/>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V99" s="25"/>
+      <c r="W99" s="25"/>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="27"/>
       <c r="B100" s="28"/>
       <c r="C100" s="27"/>
@@ -26767,10 +26794,10 @@
       <c r="P100" s="25"/>
       <c r="Q100" s="25"/>
       <c r="R100" s="25"/>
-      <c r="S100" s="25"/>
-      <c r="T100" s="25"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V100" s="25"/>
+      <c r="W100" s="25"/>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="27"/>
       <c r="B101" s="28"/>
       <c r="C101" s="27"/>
@@ -26789,10 +26816,10 @@
       <c r="P101" s="25"/>
       <c r="Q101" s="25"/>
       <c r="R101" s="25"/>
-      <c r="S101" s="25"/>
-      <c r="T101" s="25"/>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V101" s="25"/>
+      <c r="W101" s="25"/>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="27"/>
       <c r="B102" s="28"/>
       <c r="C102" s="27"/>
@@ -26811,10 +26838,10 @@
       <c r="P102" s="25"/>
       <c r="Q102" s="25"/>
       <c r="R102" s="25"/>
-      <c r="S102" s="25"/>
-      <c r="T102" s="25"/>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V102" s="25"/>
+      <c r="W102" s="25"/>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="27"/>
       <c r="B103" s="28"/>
       <c r="C103" s="27"/>
@@ -26833,10 +26860,10 @@
       <c r="P103" s="25"/>
       <c r="Q103" s="25"/>
       <c r="R103" s="25"/>
-      <c r="S103" s="25"/>
-      <c r="T103" s="25"/>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V103" s="25"/>
+      <c r="W103" s="25"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="27"/>
       <c r="B104" s="28"/>
       <c r="C104" s="27"/>
@@ -26855,10 +26882,10 @@
       <c r="P104" s="25"/>
       <c r="Q104" s="25"/>
       <c r="R104" s="25"/>
-      <c r="S104" s="25"/>
-      <c r="T104" s="25"/>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V104" s="25"/>
+      <c r="W104" s="25"/>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="27"/>
       <c r="B105" s="28"/>
       <c r="C105" s="27"/>
@@ -26877,10 +26904,10 @@
       <c r="P105" s="25"/>
       <c r="Q105" s="25"/>
       <c r="R105" s="25"/>
-      <c r="S105" s="25"/>
-      <c r="T105" s="25"/>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V105" s="25"/>
+      <c r="W105" s="25"/>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="27"/>
       <c r="B106" s="28"/>
       <c r="C106" s="27"/>
@@ -26899,10 +26926,10 @@
       <c r="P106" s="25"/>
       <c r="Q106" s="25"/>
       <c r="R106" s="25"/>
-      <c r="S106" s="25"/>
-      <c r="T106" s="25"/>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V106" s="25"/>
+      <c r="W106" s="25"/>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="27"/>
       <c r="B107" s="28"/>
       <c r="C107" s="27"/>
@@ -26921,10 +26948,10 @@
       <c r="P107" s="25"/>
       <c r="Q107" s="25"/>
       <c r="R107" s="25"/>
-      <c r="S107" s="25"/>
-      <c r="T107" s="25"/>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V107" s="25"/>
+      <c r="W107" s="25"/>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="27"/>
       <c r="B108" s="28"/>
       <c r="C108" s="27"/>
@@ -26943,10 +26970,10 @@
       <c r="P108" s="25"/>
       <c r="Q108" s="25"/>
       <c r="R108" s="25"/>
-      <c r="S108" s="25"/>
-      <c r="T108" s="25"/>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V108" s="25"/>
+      <c r="W108" s="25"/>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="27"/>
       <c r="B109" s="28"/>
       <c r="C109" s="27"/>
@@ -26965,10 +26992,10 @@
       <c r="P109" s="25"/>
       <c r="Q109" s="25"/>
       <c r="R109" s="25"/>
-      <c r="S109" s="25"/>
-      <c r="T109" s="25"/>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V109" s="25"/>
+      <c r="W109" s="25"/>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="27"/>
       <c r="B110" s="28"/>
       <c r="C110" s="27"/>
@@ -26987,10 +27014,10 @@
       <c r="P110" s="25"/>
       <c r="Q110" s="25"/>
       <c r="R110" s="25"/>
-      <c r="S110" s="25"/>
-      <c r="T110" s="25"/>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V110" s="25"/>
+      <c r="W110" s="25"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="27"/>
       <c r="B111" s="28"/>
       <c r="C111" s="27"/>
@@ -27009,10 +27036,10 @@
       <c r="P111" s="25"/>
       <c r="Q111" s="25"/>
       <c r="R111" s="25"/>
-      <c r="S111" s="25"/>
-      <c r="T111" s="25"/>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V111" s="25"/>
+      <c r="W111" s="25"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="27"/>
       <c r="B112" s="28"/>
       <c r="C112" s="27"/>
@@ -27031,10 +27058,10 @@
       <c r="P112" s="25"/>
       <c r="Q112" s="25"/>
       <c r="R112" s="25"/>
-      <c r="S112" s="25"/>
-      <c r="T112" s="25"/>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V112" s="25"/>
+      <c r="W112" s="25"/>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="27"/>
       <c r="B113" s="28"/>
       <c r="C113" s="27"/>
@@ -27053,10 +27080,10 @@
       <c r="P113" s="25"/>
       <c r="Q113" s="25"/>
       <c r="R113" s="25"/>
-      <c r="S113" s="25"/>
-      <c r="T113" s="25"/>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V113" s="25"/>
+      <c r="W113" s="25"/>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="27"/>
       <c r="B114" s="28"/>
       <c r="C114" s="27"/>
@@ -27075,10 +27102,10 @@
       <c r="P114" s="25"/>
       <c r="Q114" s="25"/>
       <c r="R114" s="25"/>
-      <c r="S114" s="25"/>
-      <c r="T114" s="25"/>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V114" s="25"/>
+      <c r="W114" s="25"/>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="27"/>
       <c r="B115" s="28"/>
       <c r="C115" s="27"/>
@@ -27097,10 +27124,10 @@
       <c r="P115" s="25"/>
       <c r="Q115" s="25"/>
       <c r="R115" s="25"/>
-      <c r="S115" s="25"/>
-      <c r="T115" s="25"/>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V115" s="25"/>
+      <c r="W115" s="25"/>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="27"/>
       <c r="B116" s="28"/>
       <c r="C116" s="27"/>
@@ -27119,10 +27146,10 @@
       <c r="P116" s="25"/>
       <c r="Q116" s="25"/>
       <c r="R116" s="25"/>
-      <c r="S116" s="25"/>
-      <c r="T116" s="25"/>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V116" s="25"/>
+      <c r="W116" s="25"/>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="27"/>
       <c r="B117" s="28"/>
       <c r="C117" s="27"/>
@@ -27141,10 +27168,10 @@
       <c r="P117" s="25"/>
       <c r="Q117" s="25"/>
       <c r="R117" s="25"/>
-      <c r="S117" s="25"/>
-      <c r="T117" s="25"/>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V117" s="25"/>
+      <c r="W117" s="25"/>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="27"/>
       <c r="B118" s="28"/>
       <c r="C118" s="27"/>
@@ -27163,10 +27190,10 @@
       <c r="P118" s="25"/>
       <c r="Q118" s="25"/>
       <c r="R118" s="25"/>
-      <c r="S118" s="25"/>
-      <c r="T118" s="25"/>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V118" s="25"/>
+      <c r="W118" s="25"/>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="27"/>
       <c r="B119" s="28"/>
       <c r="C119" s="27"/>
@@ -27185,10 +27212,10 @@
       <c r="P119" s="25"/>
       <c r="Q119" s="25"/>
       <c r="R119" s="25"/>
-      <c r="S119" s="25"/>
-      <c r="T119" s="25"/>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V119" s="25"/>
+      <c r="W119" s="25"/>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="27"/>
       <c r="B120" s="28"/>
       <c r="C120" s="27"/>
@@ -27207,10 +27234,10 @@
       <c r="P120" s="25"/>
       <c r="Q120" s="25"/>
       <c r="R120" s="25"/>
-      <c r="S120" s="25"/>
-      <c r="T120" s="25"/>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V120" s="25"/>
+      <c r="W120" s="25"/>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="27"/>
       <c r="B121" s="28"/>
       <c r="C121" s="27"/>
@@ -27229,10 +27256,10 @@
       <c r="P121" s="25"/>
       <c r="Q121" s="25"/>
       <c r="R121" s="25"/>
-      <c r="S121" s="25"/>
-      <c r="T121" s="25"/>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V121" s="25"/>
+      <c r="W121" s="25"/>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="27"/>
       <c r="B122" s="28"/>
       <c r="C122" s="27"/>
@@ -27251,10 +27278,10 @@
       <c r="P122" s="25"/>
       <c r="Q122" s="25"/>
       <c r="R122" s="25"/>
-      <c r="S122" s="25"/>
-      <c r="T122" s="25"/>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V122" s="25"/>
+      <c r="W122" s="25"/>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="27"/>
       <c r="B123" s="28"/>
       <c r="C123" s="27"/>
@@ -27273,10 +27300,10 @@
       <c r="P123" s="25"/>
       <c r="Q123" s="25"/>
       <c r="R123" s="25"/>
-      <c r="S123" s="25"/>
-      <c r="T123" s="25"/>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V123" s="25"/>
+      <c r="W123" s="25"/>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="27"/>
       <c r="B124" s="28"/>
       <c r="C124" s="27"/>
@@ -27295,10 +27322,10 @@
       <c r="P124" s="25"/>
       <c r="Q124" s="25"/>
       <c r="R124" s="25"/>
-      <c r="S124" s="25"/>
-      <c r="T124" s="25"/>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V124" s="25"/>
+      <c r="W124" s="25"/>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="27"/>
       <c r="B125" s="28"/>
       <c r="C125" s="27"/>
@@ -27317,10 +27344,10 @@
       <c r="P125" s="25"/>
       <c r="Q125" s="25"/>
       <c r="R125" s="25"/>
-      <c r="S125" s="25"/>
-      <c r="T125" s="25"/>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V125" s="25"/>
+      <c r="W125" s="25"/>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="27"/>
       <c r="B126" s="28"/>
       <c r="C126" s="27"/>
@@ -27339,10 +27366,10 @@
       <c r="P126" s="25"/>
       <c r="Q126" s="25"/>
       <c r="R126" s="25"/>
-      <c r="S126" s="25"/>
-      <c r="T126" s="25"/>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V126" s="25"/>
+      <c r="W126" s="25"/>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="27"/>
       <c r="B127" s="28"/>
       <c r="C127" s="27"/>
@@ -27361,10 +27388,10 @@
       <c r="P127" s="25"/>
       <c r="Q127" s="25"/>
       <c r="R127" s="25"/>
-      <c r="S127" s="25"/>
-      <c r="T127" s="25"/>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V127" s="25"/>
+      <c r="W127" s="25"/>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="27"/>
       <c r="B128" s="28"/>
       <c r="C128" s="27"/>
@@ -27383,10 +27410,10 @@
       <c r="P128" s="25"/>
       <c r="Q128" s="25"/>
       <c r="R128" s="25"/>
-      <c r="S128" s="25"/>
-      <c r="T128" s="25"/>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V128" s="25"/>
+      <c r="W128" s="25"/>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="27"/>
       <c r="B129" s="28"/>
       <c r="C129" s="27"/>
@@ -27405,10 +27432,10 @@
       <c r="P129" s="25"/>
       <c r="Q129" s="25"/>
       <c r="R129" s="25"/>
-      <c r="S129" s="25"/>
-      <c r="T129" s="25"/>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V129" s="25"/>
+      <c r="W129" s="25"/>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="27"/>
       <c r="B130" s="28"/>
       <c r="C130" s="27"/>
@@ -27427,10 +27454,10 @@
       <c r="P130" s="25"/>
       <c r="Q130" s="25"/>
       <c r="R130" s="25"/>
-      <c r="S130" s="25"/>
-      <c r="T130" s="25"/>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V130" s="25"/>
+      <c r="W130" s="25"/>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="27"/>
       <c r="B131" s="28"/>
       <c r="C131" s="27"/>
@@ -27449,10 +27476,10 @@
       <c r="P131" s="25"/>
       <c r="Q131" s="25"/>
       <c r="R131" s="25"/>
-      <c r="S131" s="25"/>
-      <c r="T131" s="25"/>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V131" s="25"/>
+      <c r="W131" s="25"/>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="27"/>
       <c r="B132" s="28"/>
       <c r="C132" s="27"/>
@@ -27471,10 +27498,10 @@
       <c r="P132" s="25"/>
       <c r="Q132" s="25"/>
       <c r="R132" s="25"/>
-      <c r="S132" s="25"/>
-      <c r="T132" s="25"/>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V132" s="25"/>
+      <c r="W132" s="25"/>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="27"/>
       <c r="B133" s="28"/>
       <c r="C133" s="27"/>
@@ -27493,10 +27520,10 @@
       <c r="P133" s="25"/>
       <c r="Q133" s="25"/>
       <c r="R133" s="25"/>
-      <c r="S133" s="25"/>
-      <c r="T133" s="25"/>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V133" s="25"/>
+      <c r="W133" s="25"/>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="27"/>
       <c r="B134" s="28"/>
       <c r="C134" s="27"/>
@@ -27515,10 +27542,10 @@
       <c r="P134" s="25"/>
       <c r="Q134" s="25"/>
       <c r="R134" s="25"/>
-      <c r="S134" s="25"/>
-      <c r="T134" s="25"/>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V134" s="25"/>
+      <c r="W134" s="25"/>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" s="27"/>
       <c r="B135" s="28"/>
       <c r="C135" s="27"/>
@@ -27537,10 +27564,10 @@
       <c r="P135" s="25"/>
       <c r="Q135" s="25"/>
       <c r="R135" s="25"/>
-      <c r="S135" s="25"/>
-      <c r="T135" s="25"/>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V135" s="25"/>
+      <c r="W135" s="25"/>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" s="27"/>
       <c r="B136" s="28"/>
       <c r="C136" s="27"/>
@@ -27559,12 +27586,12 @@
       <c r="P136" s="25"/>
       <c r="Q136" s="25"/>
       <c r="R136" s="25"/>
-      <c r="S136" s="25"/>
-      <c r="T136" s="25"/>
+      <c r="V136" s="25"/>
+      <c r="W136" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A14:S14" xr:uid="{6723F10E-43AD-4B21-8608-8B217E308CF5}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:S14">
+  <autoFilter ref="A14:V14" xr:uid="{6723F10E-43AD-4B21-8608-8B217E308CF5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:V15">
       <sortCondition ref="B14"/>
     </sortState>
   </autoFilter>
@@ -27573,7 +27600,7 @@
     <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
